--- a/Documentação/Excel/Backlog 2.0.xlsx
+++ b/Documentação/Excel/Backlog 2.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\proj.DevBand\DevBand\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\proj.DevBand\DevBand\Documentação\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F79C26B6-5A43-4731-9CC8-9B5362C4A456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779F388-07EF-4B61-94CE-032EB9E946D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{57D82E1F-6724-4945-83E7-C8B1A65F33AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>carousel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> funcional</t>
   </si>
 </sst>
 </file>
@@ -615,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6A86F2-CA53-49B7-A1DD-76A788889E8B}">
   <dimension ref="C3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G5" s="9">
         <v>13</v>
@@ -691,7 +694,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G6" s="9">
         <v>13</v>
@@ -709,7 +712,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G7" s="9">
         <v>13</v>
@@ -727,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G8" s="9">
         <v>13</v>
@@ -997,7 +1000,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G23" s="9">
         <v>13</v>
@@ -1069,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G27" s="9">
         <v>13</v>
@@ -1087,7 +1090,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G28" s="8">
         <v>21</v>
